--- a/系统常量参数设定20180911.xlsx
+++ b/系统常量参数设定20180911.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0D93D7-3BB9-4CEA-B4AB-25A8E3E71083}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DB5DAB6A-F1E0-49D7-92FE-9837B79DF5D5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="常量参数内容" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="386">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1482,6 +1482,69 @@
   </si>
   <si>
     <t>GASCAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLETYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监测机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTHBODY</t>
+  </si>
+  <si>
+    <t>CITEK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONADMIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERTYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广汽集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GQYJY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GQJT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTHER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广汽研究院</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1653,7 +1716,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1665,16 +1737,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1962,13 +2025,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P298"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="28.5" style="7" customWidth="1"/>
     <col min="4" max="4" width="24.75" style="7" customWidth="1"/>
@@ -1976,7 +2039,7 @@
     <col min="6" max="6" width="18" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1996,17 +2059,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2">
@@ -2016,13 +2079,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="2">
         <v>1</v>
       </c>
@@ -2030,13 +2093,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="2">
@@ -2046,11 +2109,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="2">
         <v>1</v>
       </c>
@@ -2058,13 +2121,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="25" t="s">
         <v>146</v>
       </c>
       <c r="E6" s="2">
@@ -2074,11 +2137,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="2">
         <v>1</v>
       </c>
@@ -2086,11 +2149,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="2">
         <v>2</v>
       </c>
@@ -2098,11 +2161,11 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="2">
         <v>3</v>
       </c>
@@ -2110,17 +2173,17 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="23" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -2130,13 +2193,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="5" t="s">
         <v>10</v>
       </c>
@@ -2144,11 +2207,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="5" t="s">
         <v>131</v>
       </c>
@@ -2156,11 +2219,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>5</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="5" t="s">
         <v>12</v>
       </c>
@@ -2174,15 +2237,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>6</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -2192,13 +2255,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>7</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="5" t="s">
         <v>10</v>
       </c>
@@ -2206,13 +2269,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="23" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -2222,11 +2285,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="5" t="s">
         <v>39</v>
       </c>
@@ -2234,13 +2297,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>8</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="5" t="s">
         <v>38</v>
       </c>
@@ -2248,7 +2311,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="20" t="s">
         <v>43</v>
@@ -2266,11 +2329,11 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="5" t="s">
         <v>133</v>
       </c>
@@ -2278,43 +2341,43 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>9</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="5">
@@ -2333,13 +2396,13 @@
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
     </row>
-    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>10</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="5">
         <v>1</v>
       </c>
@@ -2352,20 +2415,20 @@
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="8"/>
-      <c r="M25" s="28"/>
+      <c r="M25" s="24"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
     </row>
-    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>11</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="23" t="s">
         <v>51</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -2380,18 +2443,18 @@
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="8"/>
-      <c r="M26" s="28"/>
+      <c r="M26" s="24"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
     </row>
-    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>12</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="5" t="s">
         <v>57</v>
       </c>
@@ -2403,18 +2466,18 @@
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="28"/>
+      <c r="M27" s="24"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
     </row>
-    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>13</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="5" t="s">
         <v>58</v>
       </c>
@@ -2426,18 +2489,18 @@
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="28"/>
+      <c r="M28" s="24"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
     </row>
-    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>14</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="5" t="s">
         <v>59</v>
       </c>
@@ -2449,20 +2512,20 @@
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="8"/>
-      <c r="M29" s="28"/>
+      <c r="M29" s="24"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
     </row>
-    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>15</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="23" t="s">
         <v>61</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -2472,18 +2535,18 @@
         <v>7</v>
       </c>
       <c r="L30" s="8"/>
-      <c r="M30" s="28"/>
+      <c r="M30" s="24"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
     </row>
-    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>16</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="5" t="s">
         <v>69</v>
       </c>
@@ -2491,18 +2554,18 @@
         <v>8</v>
       </c>
       <c r="L31" s="8"/>
-      <c r="M31" s="28"/>
+      <c r="M31" s="24"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
     </row>
-    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>17</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="5" t="s">
         <v>70</v>
       </c>
@@ -2515,13 +2578,13 @@
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
     </row>
-    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>18</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
       <c r="E33" s="6" t="s">
         <v>71</v>
       </c>
@@ -2534,13 +2597,13 @@
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
     </row>
-    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>19</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="5" t="s">
         <v>72</v>
       </c>
@@ -2548,13 +2611,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>20</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="5" t="s">
         <v>73</v>
       </c>
@@ -2562,13 +2625,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>21</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="5" t="s">
         <v>74</v>
       </c>
@@ -2576,15 +2639,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>22</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26" t="s">
+      <c r="B37" s="21"/>
+      <c r="C37" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="23" t="s">
         <v>75</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -2594,13 +2657,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>23</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="5" t="s">
         <v>69</v>
       </c>
@@ -2608,13 +2671,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>24</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="5" t="s">
         <v>70</v>
       </c>
@@ -2622,13 +2685,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>25</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="6" t="s">
         <v>71</v>
       </c>
@@ -2636,13 +2699,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>26</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="5" t="s">
         <v>72</v>
       </c>
@@ -2650,13 +2713,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>27</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="5" t="s">
         <v>73</v>
       </c>
@@ -2664,13 +2727,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>28</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
       <c r="E43" s="5" t="s">
         <v>74</v>
       </c>
@@ -2678,17 +2741,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>29</v>
       </c>
       <c r="B44" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="23" t="s">
         <v>79</v>
       </c>
       <c r="E44" s="5" t="s">
@@ -2698,13 +2761,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>30</v>
       </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
       <c r="E45" s="5" t="s">
         <v>10</v>
       </c>
@@ -2712,15 +2775,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>31</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="26" t="s">
+      <c r="B46" s="21"/>
+      <c r="C46" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="23" t="s">
         <v>82</v>
       </c>
       <c r="E46" s="5" t="s">
@@ -2730,13 +2793,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>30</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
       <c r="E47" s="5" t="s">
         <v>10</v>
       </c>
@@ -2744,13 +2807,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="26" t="s">
+      <c r="B48" s="21"/>
+      <c r="C48" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="23" t="s">
         <v>87</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -2760,11 +2823,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
       <c r="E49" s="6" t="s">
         <v>93</v>
       </c>
@@ -2772,11 +2835,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
       <c r="E50" s="6" t="s">
         <v>94</v>
       </c>
@@ -2784,11 +2847,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
       <c r="E51" s="6" t="s">
         <v>95</v>
       </c>
@@ -2796,13 +2859,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="26" t="s">
+      <c r="B52" s="21"/>
+      <c r="C52" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="23" t="s">
         <v>97</v>
       </c>
       <c r="E52" s="5" t="s">
@@ -2812,11 +2875,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
       <c r="E53" s="6" t="s">
         <v>71</v>
       </c>
@@ -2824,11 +2887,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
       <c r="E54" s="5" t="s">
         <v>72</v>
       </c>
@@ -2836,11 +2899,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
       <c r="E55" s="5" t="s">
         <v>73</v>
       </c>
@@ -2848,11 +2911,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
       <c r="E56" s="5" t="s">
         <v>74</v>
       </c>
@@ -2860,13 +2923,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="26" t="s">
+      <c r="B57" s="21"/>
+      <c r="C57" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="26" t="s">
+      <c r="D57" s="23" t="s">
         <v>98</v>
       </c>
       <c r="E57" s="6" t="s">
@@ -2876,11 +2939,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
       <c r="E58" s="6" t="s">
         <v>105</v>
       </c>
@@ -2888,11 +2951,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
       <c r="E59" s="5" t="s">
         <v>106</v>
       </c>
@@ -2900,11 +2963,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
       <c r="E60" s="5" t="s">
         <v>101</v>
       </c>
@@ -2912,11 +2975,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
       <c r="E61" s="6" t="s">
         <v>107</v>
       </c>
@@ -2924,11 +2987,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
       <c r="E62" s="6" t="s">
         <v>108</v>
       </c>
@@ -2936,11 +2999,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
       <c r="E63" s="6" t="s">
         <v>109</v>
       </c>
@@ -2948,11 +3011,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
       <c r="E64" s="5" t="s">
         <v>104</v>
       </c>
@@ -2960,13 +3023,13 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="26" t="s">
+      <c r="B65" s="21"/>
+      <c r="C65" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D65" s="26" t="s">
+      <c r="D65" s="23" t="s">
         <v>111</v>
       </c>
       <c r="E65" s="6" t="s">
@@ -2976,11 +3039,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
       <c r="E66" s="6" t="s">
         <v>115</v>
       </c>
@@ -2988,11 +3051,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
       <c r="E67" s="6" t="s">
         <v>116</v>
       </c>
@@ -3000,13 +3063,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="26" t="s">
+      <c r="B68" s="21"/>
+      <c r="C68" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D68" s="26" t="s">
+      <c r="D68" s="23" t="s">
         <v>118</v>
       </c>
       <c r="E68" s="6" t="s">
@@ -3016,11 +3079,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
       <c r="E69" s="6" t="s">
         <v>122</v>
       </c>
@@ -3028,9 +3091,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="25"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="20" t="s">
         <v>123</v>
       </c>
@@ -3044,11 +3107,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
       <c r="E71" s="5" t="s">
         <v>137</v>
       </c>
@@ -3056,11 +3119,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
       <c r="E72" s="5" t="s">
         <v>138</v>
       </c>
@@ -3068,9 +3131,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
-      <c r="B73" s="25"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="20" t="s">
         <v>139</v>
       </c>
@@ -3084,11 +3147,11 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
       <c r="E74" s="5" t="s">
         <v>143</v>
       </c>
@@ -3096,7 +3159,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="5"/>
@@ -3104,7 +3167,7 @@
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="5"/>
@@ -3112,7 +3175,7 @@
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="5"/>
@@ -3120,7 +3183,7 @@
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="5"/>
@@ -3128,7 +3191,7 @@
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="5"/>
@@ -3136,7 +3199,7 @@
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="5"/>
@@ -3144,7 +3207,7 @@
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="5"/>
@@ -3152,7 +3215,7 @@
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="5"/>
@@ -3160,7 +3223,7 @@
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="5"/>
@@ -3168,7 +3231,7 @@
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="5"/>
@@ -3176,7 +3239,7 @@
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="5"/>
@@ -3184,7 +3247,7 @@
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="5"/>
@@ -3192,7 +3255,7 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="5"/>
@@ -3200,7 +3263,7 @@
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="5"/>
@@ -3208,7 +3271,7 @@
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="5"/>
@@ -3216,7 +3279,7 @@
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="5"/>
@@ -3224,7 +3287,7 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="5"/>
@@ -3232,7 +3295,7 @@
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="5"/>
@@ -3240,7 +3303,7 @@
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="5"/>
@@ -3248,7 +3311,7 @@
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="5"/>
@@ -3256,7 +3319,7 @@
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="5"/>
@@ -3264,7 +3327,7 @@
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="5"/>
@@ -3272,7 +3335,7 @@
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="5"/>
@@ -3280,7 +3343,7 @@
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="5"/>
@@ -3288,7 +3351,7 @@
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="5"/>
@@ -3296,7 +3359,7 @@
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="5"/>
@@ -3304,7 +3367,7 @@
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="5"/>
@@ -3312,7 +3375,7 @@
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="5"/>
@@ -3320,7 +3383,7 @@
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="5"/>
@@ -3328,7 +3391,7 @@
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="5"/>
@@ -3336,7 +3399,7 @@
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="5"/>
@@ -3344,7 +3407,7 @@
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="5"/>
@@ -3352,7 +3415,7 @@
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="5"/>
@@ -3360,7 +3423,7 @@
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="5"/>
@@ -3368,7 +3431,7 @@
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="5"/>
@@ -3376,7 +3439,7 @@
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="5"/>
@@ -3384,7 +3447,7 @@
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="5"/>
@@ -3392,7 +3455,7 @@
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="5"/>
@@ -3400,7 +3463,7 @@
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="5"/>
@@ -3408,7 +3471,7 @@
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="5"/>
@@ -3416,7 +3479,7 @@
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="5"/>
@@ -3424,7 +3487,7 @@
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="5"/>
@@ -3432,7 +3495,7 @@
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="5"/>
@@ -3440,7 +3503,7 @@
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="5"/>
@@ -3448,7 +3511,7 @@
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="5"/>
@@ -3456,7 +3519,7 @@
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="5"/>
@@ -3464,7 +3527,7 @@
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="5"/>
@@ -3472,7 +3535,7 @@
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="5"/>
@@ -3480,7 +3543,7 @@
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="5"/>
@@ -3488,7 +3551,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="5"/>
@@ -3496,7 +3559,7 @@
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="5"/>
@@ -3504,7 +3567,7 @@
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="5"/>
@@ -3512,7 +3575,7 @@
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="5"/>
@@ -3520,7 +3583,7 @@
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="5"/>
@@ -3528,7 +3591,7 @@
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="5"/>
@@ -3536,7 +3599,7 @@
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="5"/>
@@ -3544,7 +3607,7 @@
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="5"/>
@@ -3552,7 +3615,7 @@
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="5"/>
@@ -3560,7 +3623,7 @@
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="5"/>
@@ -3568,7 +3631,7 @@
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="5"/>
@@ -3576,7 +3639,7 @@
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="5"/>
@@ -3584,7 +3647,7 @@
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="5"/>
@@ -3592,7 +3655,7 @@
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="5"/>
@@ -3600,7 +3663,7 @@
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="5"/>
@@ -3608,7 +3671,7 @@
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="5"/>
@@ -3616,7 +3679,7 @@
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="5"/>
@@ -3624,7 +3687,7 @@
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="5"/>
@@ -3632,7 +3695,7 @@
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="5"/>
@@ -3640,7 +3703,7 @@
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="5"/>
@@ -3648,7 +3711,7 @@
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="5"/>
@@ -3656,7 +3719,7 @@
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="5"/>
@@ -3664,7 +3727,7 @@
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="5"/>
@@ -3672,7 +3735,7 @@
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="5"/>
@@ -3680,7 +3743,7 @@
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="5"/>
@@ -3688,7 +3751,7 @@
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="5"/>
@@ -3696,7 +3759,7 @@
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="5"/>
@@ -3704,7 +3767,7 @@
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="5"/>
@@ -3712,7 +3775,7 @@
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="5"/>
@@ -3720,7 +3783,7 @@
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="5"/>
@@ -3728,7 +3791,7 @@
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="5"/>
@@ -3736,7 +3799,7 @@
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="5"/>
@@ -3744,7 +3807,7 @@
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="5"/>
@@ -3752,7 +3815,7 @@
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="5"/>
@@ -3760,7 +3823,7 @@
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="5"/>
@@ -3768,7 +3831,7 @@
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="5"/>
@@ -3776,7 +3839,7 @@
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="5"/>
@@ -3784,7 +3847,7 @@
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="5"/>
@@ -3792,7 +3855,7 @@
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="5"/>
@@ -3800,7 +3863,7 @@
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="5"/>
@@ -3808,7 +3871,7 @@
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="5"/>
@@ -3816,7 +3879,7 @@
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="5"/>
@@ -3824,7 +3887,7 @@
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="5"/>
@@ -3832,7 +3895,7 @@
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="5"/>
@@ -3840,7 +3903,7 @@
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="5"/>
@@ -3848,7 +3911,7 @@
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="5"/>
@@ -3856,7 +3919,7 @@
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="5"/>
@@ -3864,7 +3927,7 @@
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="5"/>
@@ -3872,7 +3935,7 @@
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="5"/>
@@ -3880,7 +3943,7 @@
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="5"/>
@@ -3888,7 +3951,7 @@
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="5"/>
@@ -3896,7 +3959,7 @@
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="5"/>
@@ -3904,7 +3967,7 @@
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="5"/>
@@ -3912,7 +3975,7 @@
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="5"/>
@@ -3920,7 +3983,7 @@
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="5"/>
@@ -3928,7 +3991,7 @@
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="5"/>
@@ -3936,7 +3999,7 @@
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="5"/>
@@ -3944,7 +4007,7 @@
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="5"/>
@@ -3952,7 +4015,7 @@
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="5"/>
@@ -3960,7 +4023,7 @@
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="5"/>
@@ -3968,7 +4031,7 @@
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="5"/>
@@ -3976,7 +4039,7 @@
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="5"/>
@@ -3984,7 +4047,7 @@
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="5"/>
@@ -3992,7 +4055,7 @@
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="5"/>
@@ -4000,7 +4063,7 @@
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="5"/>
@@ -4008,7 +4071,7 @@
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="5"/>
@@ -4016,7 +4079,7 @@
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="5"/>
@@ -4024,7 +4087,7 @@
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="5"/>
@@ -4032,7 +4095,7 @@
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="5"/>
@@ -4040,7 +4103,7 @@
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="5"/>
@@ -4048,7 +4111,7 @@
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="5"/>
@@ -4056,7 +4119,7 @@
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="5"/>
@@ -4064,7 +4127,7 @@
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="5"/>
@@ -4072,7 +4135,7 @@
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="5"/>
@@ -4080,7 +4143,7 @@
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="5"/>
@@ -4088,7 +4151,7 @@
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="5"/>
@@ -4096,7 +4159,7 @@
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="5"/>
@@ -4104,7 +4167,7 @@
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="5"/>
@@ -4112,7 +4175,7 @@
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="5"/>
@@ -4120,7 +4183,7 @@
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="5"/>
@@ -4128,7 +4191,7 @@
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="5"/>
@@ -4136,7 +4199,7 @@
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="5"/>
@@ -4144,7 +4207,7 @@
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="5"/>
@@ -4152,7 +4215,7 @@
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="5"/>
@@ -4160,7 +4223,7 @@
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="5"/>
@@ -4168,7 +4231,7 @@
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="5"/>
@@ -4176,7 +4239,7 @@
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="5"/>
@@ -4184,7 +4247,7 @@
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="5"/>
@@ -4192,7 +4255,7 @@
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="5"/>
@@ -4200,7 +4263,7 @@
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="5"/>
@@ -4208,7 +4271,7 @@
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="5"/>
@@ -4216,7 +4279,7 @@
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="5"/>
@@ -4224,7 +4287,7 @@
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="5"/>
@@ -4232,7 +4295,7 @@
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="5"/>
@@ -4240,7 +4303,7 @@
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="5"/>
@@ -4248,7 +4311,7 @@
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="5"/>
@@ -4256,7 +4319,7 @@
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="5"/>
@@ -4264,7 +4327,7 @@
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="5"/>
@@ -4272,7 +4335,7 @@
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="5"/>
@@ -4280,7 +4343,7 @@
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="5"/>
@@ -4288,7 +4351,7 @@
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="5"/>
@@ -4296,7 +4359,7 @@
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="5"/>
@@ -4304,7 +4367,7 @@
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="5"/>
@@ -4312,7 +4375,7 @@
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="5"/>
@@ -4320,7 +4383,7 @@
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="5"/>
@@ -4328,7 +4391,7 @@
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="5"/>
@@ -4336,7 +4399,7 @@
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="5"/>
@@ -4344,7 +4407,7 @@
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="5"/>
@@ -4352,7 +4415,7 @@
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="5"/>
@@ -4360,7 +4423,7 @@
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="5"/>
@@ -4368,7 +4431,7 @@
       <c r="E233" s="5"/>
       <c r="F233" s="5"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="5"/>
@@ -4376,7 +4439,7 @@
       <c r="E234" s="5"/>
       <c r="F234" s="5"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="5"/>
@@ -4384,7 +4447,7 @@
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="5"/>
@@ -4392,7 +4455,7 @@
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="5"/>
@@ -4400,7 +4463,7 @@
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="5"/>
@@ -4408,7 +4471,7 @@
       <c r="E238" s="5"/>
       <c r="F238" s="5"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="5"/>
@@ -4416,7 +4479,7 @@
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="5"/>
@@ -4424,7 +4487,7 @@
       <c r="E240" s="5"/>
       <c r="F240" s="5"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="5"/>
@@ -4432,7 +4495,7 @@
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="5"/>
@@ -4440,7 +4503,7 @@
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="5"/>
@@ -4448,7 +4511,7 @@
       <c r="E243" s="5"/>
       <c r="F243" s="5"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="5"/>
@@ -4456,7 +4519,7 @@
       <c r="E244" s="5"/>
       <c r="F244" s="5"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="5"/>
@@ -4464,7 +4527,7 @@
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="5"/>
@@ -4472,7 +4535,7 @@
       <c r="E246" s="5"/>
       <c r="F246" s="5"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="5"/>
@@ -4480,7 +4543,7 @@
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="5"/>
@@ -4488,7 +4551,7 @@
       <c r="E248" s="5"/>
       <c r="F248" s="5"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="5"/>
@@ -4496,7 +4559,7 @@
       <c r="E249" s="5"/>
       <c r="F249" s="5"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="5"/>
@@ -4504,7 +4567,7 @@
       <c r="E250" s="5"/>
       <c r="F250" s="5"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="5"/>
@@ -4512,7 +4575,7 @@
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="5"/>
@@ -4520,7 +4583,7 @@
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="5"/>
@@ -4528,7 +4591,7 @@
       <c r="E253" s="5"/>
       <c r="F253" s="5"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="5"/>
@@ -4536,7 +4599,7 @@
       <c r="E254" s="5"/>
       <c r="F254" s="5"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="5"/>
@@ -4544,7 +4607,7 @@
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="5"/>
@@ -4552,7 +4615,7 @@
       <c r="E256" s="5"/>
       <c r="F256" s="5"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="5"/>
@@ -4560,7 +4623,7 @@
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="5"/>
@@ -4568,7 +4631,7 @@
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="5"/>
@@ -4576,7 +4639,7 @@
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="5"/>
@@ -4584,7 +4647,7 @@
       <c r="E260" s="5"/>
       <c r="F260" s="5"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="5"/>
@@ -4592,7 +4655,7 @@
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="5"/>
@@ -4600,7 +4663,7 @@
       <c r="E262" s="5"/>
       <c r="F262" s="5"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="5"/>
@@ -4608,7 +4671,7 @@
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="5"/>
@@ -4616,7 +4679,7 @@
       <c r="E264" s="5"/>
       <c r="F264" s="5"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="5"/>
@@ -4624,7 +4687,7 @@
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="5"/>
@@ -4632,7 +4695,7 @@
       <c r="E266" s="5"/>
       <c r="F266" s="5"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="5"/>
@@ -4640,7 +4703,7 @@
       <c r="E267" s="5"/>
       <c r="F267" s="5"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="5"/>
@@ -4648,7 +4711,7 @@
       <c r="E268" s="5"/>
       <c r="F268" s="5"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="5"/>
@@ -4656,7 +4719,7 @@
       <c r="E269" s="5"/>
       <c r="F269" s="5"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="5"/>
@@ -4664,7 +4727,7 @@
       <c r="E270" s="5"/>
       <c r="F270" s="5"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="5"/>
@@ -4672,7 +4735,7 @@
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="5"/>
@@ -4680,7 +4743,7 @@
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="5"/>
@@ -4688,7 +4751,7 @@
       <c r="E273" s="5"/>
       <c r="F273" s="5"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="5"/>
@@ -4696,7 +4759,7 @@
       <c r="E274" s="5"/>
       <c r="F274" s="5"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="5"/>
@@ -4704,7 +4767,7 @@
       <c r="E275" s="5"/>
       <c r="F275" s="5"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="5"/>
@@ -4712,7 +4775,7 @@
       <c r="E276" s="5"/>
       <c r="F276" s="5"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="5"/>
@@ -4720,7 +4783,7 @@
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="5"/>
@@ -4728,7 +4791,7 @@
       <c r="E278" s="5"/>
       <c r="F278" s="5"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="5"/>
@@ -4736,7 +4799,7 @@
       <c r="E279" s="5"/>
       <c r="F279" s="5"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="5"/>
@@ -4744,7 +4807,7 @@
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="5"/>
@@ -4752,7 +4815,7 @@
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="5"/>
@@ -4760,7 +4823,7 @@
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="5"/>
@@ -4768,7 +4831,7 @@
       <c r="E283" s="5"/>
       <c r="F283" s="5"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="5"/>
@@ -4776,7 +4839,7 @@
       <c r="E284" s="5"/>
       <c r="F284" s="5"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="5"/>
@@ -4784,7 +4847,7 @@
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="5"/>
@@ -4792,7 +4855,7 @@
       <c r="E286" s="5"/>
       <c r="F286" s="5"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="5"/>
@@ -4800,7 +4863,7 @@
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="5"/>
@@ -4808,7 +4871,7 @@
       <c r="E288" s="5"/>
       <c r="F288" s="5"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="5"/>
@@ -4816,7 +4879,7 @@
       <c r="E289" s="5"/>
       <c r="F289" s="5"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="5"/>
@@ -4824,7 +4887,7 @@
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="5"/>
@@ -4832,7 +4895,7 @@
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="5"/>
@@ -4840,7 +4903,7 @@
       <c r="E292" s="5"/>
       <c r="F292" s="5"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="5"/>
@@ -4848,7 +4911,7 @@
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="5"/>
@@ -4856,7 +4919,7 @@
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="5"/>
@@ -4864,7 +4927,7 @@
       <c r="E295" s="5"/>
       <c r="F295" s="5"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="5"/>
@@ -4872,7 +4935,7 @@
       <c r="E296" s="5"/>
       <c r="F296" s="5"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="5"/>
@@ -4880,7 +4943,7 @@
       <c r="E297" s="5"/>
       <c r="F297" s="5"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="5"/>
@@ -4890,37 +4953,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="D57:D64"/>
-    <mergeCell ref="C57:C64"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D30:D36"/>
-    <mergeCell ref="C30:C36"/>
-    <mergeCell ref="M25:M31"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C19:C20"/>
     <mergeCell ref="D73:D74"/>
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="D6:D9"/>
@@ -4937,6 +4969,37 @@
     <mergeCell ref="B19:B43"/>
     <mergeCell ref="D37:D43"/>
     <mergeCell ref="C37:C43"/>
+    <mergeCell ref="M25:M31"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D30:D36"/>
+    <mergeCell ref="C30:C36"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="D57:D64"/>
+    <mergeCell ref="C57:C64"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="C68:C69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4946,27 +5009,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04560844-22CC-48AE-8C9B-F37B3C53A071}">
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.08203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="24.58203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="14" customWidth="1"/>
     <col min="3" max="3" width="17" style="14" customWidth="1"/>
-    <col min="4" max="4" width="21.08203125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="16.58203125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.08203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="21.125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="24.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="14" customWidth="1"/>
     <col min="8" max="8" width="26.5" style="14" customWidth="1"/>
-    <col min="9" max="9" width="31.08203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="31.125" style="14" customWidth="1"/>
     <col min="10" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>151</v>
       </c>
@@ -4983,7 +5046,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -5000,7 +5063,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -5013,7 +5076,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -5026,7 +5089,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="29" t="s">
         <v>164</v>
       </c>
@@ -5040,7 +5103,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
       <c r="D6" s="16" t="s">
@@ -5050,7 +5113,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
       <c r="D7" s="16" t="s">
@@ -5060,7 +5123,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="16" t="s">
@@ -5071,7 +5134,7 @@
       </c>
       <c r="F8" s="17"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="16" t="s">
@@ -5081,7 +5144,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="16" t="s">
@@ -5091,7 +5154,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="16" t="s">
@@ -5101,7 +5164,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="16" t="s">
@@ -5111,7 +5174,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="16" t="s">
@@ -5121,7 +5184,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="16" t="s">
@@ -5131,7 +5194,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="16" t="s">
@@ -5141,7 +5204,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
       <c r="D16" s="10" t="s">
@@ -5151,7 +5214,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
       <c r="D17" s="16" t="s">
@@ -5161,7 +5224,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
       <c r="D18" s="16" t="s">
@@ -5171,7 +5234,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="D19" s="10" t="s">
@@ -5181,7 +5244,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="16" t="s">
@@ -5191,7 +5254,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
       <c r="D21" s="16" t="s">
@@ -5201,7 +5264,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="16" t="s">
@@ -5211,7 +5274,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="16" t="s">
@@ -5221,7 +5284,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="16" t="s">
@@ -5231,7 +5294,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
       <c r="D25" s="16" t="s">
@@ -5241,7 +5304,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="16" t="s">
@@ -5251,7 +5314,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
       <c r="D27" s="16" t="s">
@@ -5261,7 +5324,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
       <c r="D28" s="16" t="s">
@@ -5271,7 +5334,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
       <c r="D29" s="16" t="s">
@@ -5281,7 +5344,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
       <c r="D30" s="16" t="s">
@@ -5291,7 +5354,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="16" t="s">
@@ -5301,7 +5364,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="16" t="s">
@@ -5311,7 +5374,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="16" t="s">
@@ -5321,7 +5384,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="16" t="s">
@@ -5331,7 +5394,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
       <c r="D35" s="16" t="s">
@@ -5341,7 +5404,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
       <c r="D36" s="16" t="s">
@@ -5351,7 +5414,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="29" t="s">
         <v>198</v>
       </c>
@@ -5365,7 +5428,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
       <c r="D38" s="14" t="s">
@@ -5375,7 +5438,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
       <c r="D39" s="14" t="s">
@@ -5385,7 +5448,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
       <c r="D40" s="14" t="s">
@@ -5395,7 +5458,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
       <c r="D41" s="14" t="s">
@@ -5405,7 +5468,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
       <c r="D42" s="14" t="s">
@@ -5415,7 +5478,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
       <c r="D43" s="14" t="s">
@@ -5425,7 +5488,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
       <c r="D44" s="14" t="s">
@@ -5435,7 +5498,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
       <c r="D45" s="14" t="s">
@@ -5445,7 +5508,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
       <c r="D46" s="14" t="s">
@@ -5455,7 +5518,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
       <c r="D47" s="14" t="s">
@@ -5465,7 +5528,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
       <c r="D48" s="14" t="s">
@@ -5475,7 +5538,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
       <c r="D49" s="14" t="s">
@@ -5485,7 +5548,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
       <c r="D50" s="14" t="s">
@@ -5495,7 +5558,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
       <c r="D51" s="14" t="s">
@@ -5505,7 +5568,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
       <c r="D52" s="14" t="s">
@@ -5515,7 +5578,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
       <c r="D53" s="15" t="s">
@@ -5525,7 +5588,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
       <c r="D54" s="15" t="s">
@@ -5535,7 +5598,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="29"/>
       <c r="C55" s="29"/>
       <c r="D55" s="14" t="s">
@@ -5545,7 +5608,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="29" t="s">
         <v>219</v>
       </c>
@@ -5559,7 +5622,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="29"/>
       <c r="C57" s="29"/>
       <c r="D57" s="10" t="s">
@@ -5569,7 +5632,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
       <c r="D58" s="10" t="s">
@@ -5579,7 +5642,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
       <c r="D59" s="16" t="s">
@@ -5589,7 +5652,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
       <c r="D60" s="16" t="s">
@@ -5599,7 +5662,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
       <c r="D61" s="16" t="s">
@@ -5609,7 +5672,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
       <c r="D62" s="16" t="s">
@@ -5619,7 +5682,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="29"/>
       <c r="C63" s="29"/>
       <c r="D63" s="16" t="s">
@@ -5629,7 +5692,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="29"/>
       <c r="C64" s="29"/>
       <c r="D64" s="16" t="s">
@@ -5639,7 +5702,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="29"/>
       <c r="C65" s="29"/>
       <c r="D65" s="16" t="s">
@@ -5649,7 +5712,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="29"/>
       <c r="C66" s="29"/>
       <c r="D66" s="16" t="s">
@@ -5659,7 +5722,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="29"/>
       <c r="C67" s="29"/>
       <c r="D67" s="16" t="s">
@@ -5669,7 +5732,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="29"/>
       <c r="C68" s="29"/>
       <c r="D68" s="16" t="s">
@@ -5679,7 +5742,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="29"/>
       <c r="C69" s="29"/>
       <c r="D69" s="16" t="s">
@@ -5689,7 +5752,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="29"/>
       <c r="C70" s="29"/>
       <c r="D70" s="16" t="s">
@@ -5699,7 +5762,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="29" t="s">
         <v>236</v>
       </c>
@@ -5713,7 +5776,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="29"/>
       <c r="C72" s="29"/>
       <c r="D72" s="16" t="s">
@@ -5723,7 +5786,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="29"/>
       <c r="C73" s="29"/>
       <c r="D73" s="16" t="s">
@@ -5733,7 +5796,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="29"/>
       <c r="C74" s="29"/>
       <c r="D74" s="16" t="s">
@@ -5743,7 +5806,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B75" s="29" t="s">
         <v>246</v>
       </c>
@@ -5757,7 +5820,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="29"/>
       <c r="C76" s="29"/>
       <c r="D76" s="16" t="s">
@@ -5767,7 +5830,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="29"/>
       <c r="C77" s="29"/>
       <c r="D77" s="16" t="s">
@@ -5777,7 +5840,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="29"/>
       <c r="C78" s="29"/>
       <c r="D78" s="16" t="s">
@@ -5787,7 +5850,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="29"/>
       <c r="C79" s="29"/>
       <c r="D79" s="16" t="s">
@@ -5797,7 +5860,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="29"/>
       <c r="C80" s="29"/>
       <c r="D80" s="16" t="s">
@@ -5807,7 +5870,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
       <c r="D81" s="18" t="s">
@@ -5817,7 +5880,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="29"/>
       <c r="C82" s="29"/>
       <c r="D82" s="16" t="s">
@@ -5827,7 +5890,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="29"/>
       <c r="C83" s="29"/>
       <c r="D83" s="16" t="s">
@@ -5837,7 +5900,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="29"/>
       <c r="C84" s="29"/>
       <c r="D84" s="16" t="s">
@@ -5847,7 +5910,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="29"/>
       <c r="C85" s="29"/>
       <c r="D85" s="16" t="s">
@@ -5857,7 +5920,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="29"/>
       <c r="C86" s="29"/>
       <c r="D86" s="16" t="s">
@@ -5867,7 +5930,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="29"/>
       <c r="C87" s="29"/>
       <c r="D87" s="16" t="s">
@@ -5877,7 +5940,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="29"/>
       <c r="C88" s="29"/>
       <c r="D88" s="16" t="s">
@@ -5887,7 +5950,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="29"/>
       <c r="C89" s="29"/>
       <c r="D89" s="16" t="s">
@@ -5897,7 +5960,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="29"/>
       <c r="C90" s="29"/>
       <c r="D90" s="16" t="s">
@@ -5907,7 +5970,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="29"/>
       <c r="C91" s="29"/>
       <c r="D91" s="16" t="s">
@@ -5917,7 +5980,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="29"/>
       <c r="C92" s="29"/>
       <c r="D92" s="16" t="s">
@@ -5927,7 +5990,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="29"/>
       <c r="C93" s="29"/>
       <c r="D93" s="16" t="s">
@@ -5937,7 +6000,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" s="29"/>
       <c r="C94" s="29"/>
       <c r="D94" s="16" t="s">
@@ -5947,7 +6010,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" s="29"/>
       <c r="C95" s="29"/>
       <c r="D95" s="16" t="s">
@@ -5957,7 +6020,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" s="29"/>
       <c r="C96" s="29"/>
       <c r="D96" s="16" t="s">
@@ -5967,7 +6030,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" s="29"/>
       <c r="C97" s="29"/>
       <c r="D97" s="16" t="s">
@@ -5977,7 +6040,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="29"/>
       <c r="C98" s="29"/>
       <c r="D98" s="16" t="s">
@@ -5987,7 +6050,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="29"/>
       <c r="C99" s="29"/>
       <c r="D99" s="16" t="s">
@@ -5997,7 +6060,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" s="29"/>
       <c r="C100" s="29"/>
       <c r="D100" s="16" t="s">
@@ -6007,7 +6070,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="29"/>
       <c r="C101" s="29"/>
       <c r="D101" s="16" t="s">
@@ -6017,7 +6080,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" s="29"/>
       <c r="C102" s="29"/>
       <c r="D102" s="16" t="s">
@@ -6027,7 +6090,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="29"/>
       <c r="C103" s="29"/>
       <c r="D103" s="16" t="s">
@@ -6037,7 +6100,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" s="29"/>
       <c r="C104" s="29"/>
       <c r="D104" s="16" t="s">
@@ -6047,7 +6110,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" s="29" t="s">
         <v>308</v>
       </c>
@@ -6061,7 +6124,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" s="29"/>
       <c r="C106" s="29"/>
       <c r="D106" s="16" t="s">
@@ -6071,21 +6134,21 @@
         <v>344</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="29"/>
       <c r="C107" s="29"/>
       <c r="D107" s="16" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="29"/>
       <c r="C108" s="29"/>
       <c r="D108" s="16" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" s="29"/>
       <c r="C109" s="29"/>
       <c r="D109" s="16" t="s">
@@ -6095,7 +6158,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" s="29"/>
       <c r="C110" s="29"/>
       <c r="D110" s="16" t="s">
@@ -6105,7 +6168,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="29"/>
       <c r="C111" s="29"/>
       <c r="D111" s="16" t="s">
@@ -6115,7 +6178,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" s="29" t="s">
         <v>316</v>
       </c>
@@ -6129,7 +6192,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="113" spans="2:5" ht="16" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B113" s="29"/>
       <c r="C113" s="29"/>
       <c r="D113" s="19" t="s">
@@ -6139,7 +6202,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" s="29"/>
       <c r="C114" s="29"/>
       <c r="D114" s="16" t="s">
@@ -6149,7 +6212,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" s="29" t="s">
         <v>319</v>
       </c>
@@ -6163,7 +6226,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" s="29"/>
       <c r="C116" s="29"/>
       <c r="D116" s="16" t="s">
@@ -6173,7 +6236,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" s="29"/>
       <c r="C117" s="29"/>
       <c r="D117" s="16" t="s">
@@ -6183,7 +6246,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" s="29"/>
       <c r="C118" s="29"/>
       <c r="D118" s="16" t="s">
@@ -6193,7 +6256,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" s="29"/>
       <c r="C119" s="29"/>
       <c r="D119" s="16" t="s">
@@ -6203,7 +6266,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" s="29"/>
       <c r="C120" s="29"/>
       <c r="D120" s="16" t="s">
@@ -6213,7 +6276,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" s="29"/>
       <c r="C121" s="29"/>
       <c r="D121" s="16" t="s">
@@ -6223,7 +6286,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" s="29"/>
       <c r="C122" s="29"/>
       <c r="D122" s="16" t="s">
@@ -6233,7 +6296,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" s="29"/>
       <c r="C123" s="29"/>
       <c r="D123" s="16" t="s">
@@ -6243,7 +6306,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" s="29"/>
       <c r="C124" s="29"/>
       <c r="D124" s="16" t="s">
@@ -6253,26 +6316,98 @@
         <v>331</v>
       </c>
     </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B125" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="C125" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B128" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="C128" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B129" s="29"/>
+      <c r="C129" s="29"/>
+      <c r="D129" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B130" s="29"/>
+      <c r="C130" s="29"/>
+      <c r="D130" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>384</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="22">
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C5:C36"/>
+    <mergeCell ref="B5:B36"/>
+    <mergeCell ref="B37:B55"/>
+    <mergeCell ref="C37:C55"/>
+    <mergeCell ref="B56:B70"/>
+    <mergeCell ref="C56:C70"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="B75:B104"/>
+    <mergeCell ref="C75:C104"/>
     <mergeCell ref="B105:B111"/>
     <mergeCell ref="C105:C111"/>
     <mergeCell ref="B112:B114"/>
     <mergeCell ref="C112:C114"/>
     <mergeCell ref="B115:B124"/>
     <mergeCell ref="C115:C124"/>
-    <mergeCell ref="B56:B70"/>
-    <mergeCell ref="C56:C70"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="B75:B104"/>
-    <mergeCell ref="C75:C104"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C5:C36"/>
-    <mergeCell ref="B5:B36"/>
-    <mergeCell ref="B37:B55"/>
-    <mergeCell ref="C37:C55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
